--- a/diccionarios/baseExcel.xlsx
+++ b/diccionarios/baseExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Personal Space\PYTHON\APP TARIFAS\diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50352AEE-329F-4390-9A0C-F9B6C05E8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8D7F56-9B36-4C69-B1C6-56FC84820E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="240">
   <si>
     <t>Fecha_sistema</t>
   </si>
@@ -362,21 +362,6 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>Nequi A</t>
-  </si>
-  <si>
-    <t>Nequi B</t>
-  </si>
-  <si>
-    <t>Nequi C</t>
-  </si>
-  <si>
-    <t>Nequi D</t>
-  </si>
-  <si>
-    <t>Nequi E</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -759,6 +744,21 @@
   </si>
   <si>
     <t>DaviPlata</t>
+  </si>
+  <si>
+    <t>Nequi Michael Villegas</t>
+  </si>
+  <si>
+    <t>DaviPlata Emanuel Garavito</t>
+  </si>
+  <si>
+    <t>Nequi Jhon Palacios</t>
+  </si>
+  <si>
+    <t>Nequi Victoria Sarmiento</t>
+  </si>
+  <si>
+    <t>Nequi Eliana Romero</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,7 @@
     <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
@@ -1197,10 +1197,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4">
         <v>841112279</v>
@@ -1218,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4">
         <v>770917641</v>
@@ -1247,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4">
         <v>1039765788</v>
@@ -1276,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4">
         <v>765409425</v>
@@ -1308,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>10</v>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4">
         <v>93350009</v>
@@ -1337,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>21</v>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4">
         <v>770917641</v>
@@ -1369,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>22</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C8" s="4">
         <v>770917641</v>
@@ -1401,7 +1401,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>10</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C9" s="4">
         <v>1083974729</v>
@@ -1430,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>10</v>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C10" s="4">
         <v>404889397</v>
@@ -1459,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>10</v>
@@ -1467,10 +1467,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C11" s="4">
         <v>698811872</v>
@@ -1488,7 +1488,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>30</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C12" s="4">
         <v>451077970</v>
@@ -1520,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>33</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C13" s="4">
         <v>404889397</v>
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>10</v>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4">
         <v>558801174</v>
@@ -1581,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>36</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C15" s="4">
         <v>765409425</v>
@@ -1613,7 +1613,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>37</v>
@@ -1624,10 +1624,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C16" s="4">
         <v>93350009</v>
@@ -1645,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>10</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C17" s="4">
         <v>429938756</v>
@@ -1674,7 +1674,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>40</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C18" s="4">
         <v>342300918</v>
@@ -1706,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>10</v>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C19" s="4">
         <v>578844718</v>
@@ -1735,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>10</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C20" s="4">
         <v>1083974729</v>
@@ -1764,7 +1764,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>45</v>
@@ -1775,10 +1775,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C21" s="4">
         <v>726565172</v>
@@ -1796,7 +1796,7 @@
         <v>15</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>48</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C22" s="4">
         <v>558801174</v>
@@ -1828,7 +1828,7 @@
         <v>9</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>10</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C23" s="4">
         <v>578844718</v>
@@ -1857,7 +1857,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>49</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C24" s="4">
         <v>630931164</v>
@@ -1889,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>52</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C25" s="4">
         <v>578844718</v>
@@ -1921,7 +1921,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>53</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C26" s="4">
         <v>726565172</v>
@@ -1953,7 +1953,7 @@
         <v>9</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>10</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C27" s="4">
         <v>841112279</v>
@@ -1982,7 +1982,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>54</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C28" s="4">
         <v>578844718</v>
@@ -2014,7 +2014,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>55</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C29" s="4">
         <v>1083974729</v>
@@ -2046,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>56</v>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C30" s="4">
         <v>1039765788</v>
@@ -2078,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>10</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C31" s="4">
         <v>404889397</v>
@@ -2107,7 +2107,7 @@
         <v>9</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>10</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C32" s="4">
         <v>404889397</v>
@@ -2136,7 +2136,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>57</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C33" s="4">
         <v>429938756</v>
@@ -2168,7 +2168,7 @@
         <v>15</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>58</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C34" s="4">
         <v>342300918</v>
@@ -2200,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>10</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C35" s="4">
         <v>770917641</v>
@@ -2229,7 +2229,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>59</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C36" s="4">
         <v>625438523</v>
@@ -2261,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>10</v>
@@ -2269,10 +2269,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C37" s="4">
         <v>625438523</v>
@@ -2290,7 +2290,7 @@
         <v>9</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>10</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C38" s="4">
         <v>450050384</v>
@@ -2319,7 +2319,7 @@
         <v>15</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>64</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C39" s="4">
         <v>666498344</v>
@@ -2351,7 +2351,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>67</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C40" s="4">
         <v>558801174</v>
@@ -2383,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>10</v>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C41" s="4">
         <v>429938756</v>
@@ -2412,7 +2412,7 @@
         <v>9</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>10</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C42" s="4">
         <v>666498344</v>
@@ -2441,7 +2441,7 @@
         <v>9</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>10</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C43" s="4">
         <v>451077970</v>
@@ -2470,7 +2470,7 @@
         <v>9</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>10</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C44" s="4">
         <v>841112279</v>
@@ -2499,7 +2499,7 @@
         <v>9</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>10</v>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C45" s="4">
         <v>630931164</v>
@@ -2528,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>10</v>
@@ -2536,10 +2536,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C46" s="4">
         <v>625438523</v>
@@ -2557,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>10</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C47" s="4">
         <v>625438523</v>
@@ -2586,7 +2586,7 @@
         <v>9</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>10</v>
@@ -2594,10 +2594,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C48" s="4">
         <v>625438523</v>
@@ -2615,7 +2615,7 @@
         <v>15</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>68</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C49" s="4">
         <v>1083974729</v>
@@ -2647,7 +2647,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>69</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C50" s="4">
         <v>578844718</v>
@@ -2679,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>10</v>
@@ -2687,10 +2687,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C51" s="4">
         <v>666498344</v>
@@ -2708,7 +2708,7 @@
         <v>9</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>10</v>
@@ -2716,10 +2716,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C52" s="4">
         <v>841975511</v>
@@ -2737,7 +2737,7 @@
         <v>15</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>72</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C53" s="4">
         <v>630931164</v>
@@ -2769,7 +2769,7 @@
         <v>15</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>73</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C54" s="4">
         <v>93350009</v>
@@ -2801,7 +2801,7 @@
         <v>15</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>74</v>
@@ -2812,10 +2812,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C55" s="4">
         <v>841112279</v>
@@ -2833,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>75</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C56" s="4">
         <v>558801174</v>
@@ -2865,7 +2865,7 @@
         <v>15</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>76</v>
@@ -2876,10 +2876,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C57" s="4">
         <v>429938756</v>
@@ -2897,7 +2897,7 @@
         <v>9</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>10</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C58" s="4">
         <v>93350009</v>
@@ -2926,7 +2926,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>77</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C59" s="4">
         <v>93350009</v>
@@ -2958,7 +2958,7 @@
         <v>15</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>78</v>
@@ -2969,10 +2969,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C60" s="4">
         <v>770917641</v>
@@ -2990,7 +2990,7 @@
         <v>9</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>10</v>
@@ -2998,10 +2998,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C61" s="4">
         <v>342300918</v>
@@ -3019,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>10</v>
@@ -3027,10 +3027,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C62" s="4">
         <v>578844718</v>
@@ -3048,7 +3048,7 @@
         <v>9</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>10</v>
@@ -3056,10 +3056,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C63" s="4">
         <v>770917641</v>
@@ -3077,7 +3077,7 @@
         <v>9</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>10</v>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C64" s="4">
         <v>666498344</v>
@@ -3106,7 +3106,7 @@
         <v>15</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>79</v>
@@ -3117,10 +3117,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C65" s="4">
         <v>625438523</v>
@@ -3138,7 +3138,7 @@
         <v>15</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>80</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C66" s="4">
         <v>726565172</v>
@@ -3170,7 +3170,7 @@
         <v>9</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>10</v>
@@ -3178,10 +3178,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C67" s="4">
         <v>451077970</v>
@@ -3199,7 +3199,7 @@
         <v>15</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>81</v>
@@ -3210,10 +3210,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C68" s="4">
         <v>429938756</v>
@@ -3231,7 +3231,7 @@
         <v>9</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>10</v>
@@ -3239,10 +3239,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C69" s="4">
         <v>765409425</v>
@@ -3260,7 +3260,7 @@
         <v>15</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>82</v>
@@ -3271,10 +3271,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C70" s="4">
         <v>765409425</v>
@@ -3292,7 +3292,7 @@
         <v>15</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>83</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C71" s="4">
         <v>1049764642</v>
@@ -3324,7 +3324,7 @@
         <v>9</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>10</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C72" s="4">
         <v>93350009</v>
@@ -3353,7 +3353,7 @@
         <v>15</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>86</v>
@@ -3364,10 +3364,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C73" s="4">
         <v>770917641</v>
@@ -3385,7 +3385,7 @@
         <v>9</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>10</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C74" s="4">
         <v>342300918</v>
@@ -3414,7 +3414,7 @@
         <v>9</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>10</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C75" s="4">
         <v>93350009</v>
@@ -3443,7 +3443,7 @@
         <v>15</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>87</v>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C76" s="4">
         <v>429938756</v>
@@ -3475,7 +3475,7 @@
         <v>15</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>88</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C77" s="4">
         <v>342300918</v>
@@ -3507,7 +3507,7 @@
         <v>9</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>10</v>
@@ -3515,10 +3515,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C78" s="4">
         <v>765409425</v>
@@ -3536,7 +3536,7 @@
         <v>15</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>89</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C79" s="4">
         <v>1039765788</v>
@@ -3568,7 +3568,7 @@
         <v>9</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>10</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C80" s="4">
         <v>698811872</v>
@@ -3597,7 +3597,7 @@
         <v>9</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>10</v>
@@ -3605,10 +3605,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C81" s="4">
         <v>93350009</v>
@@ -3626,7 +3626,7 @@
         <v>9</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>10</v>
@@ -3634,10 +3634,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C82" s="4">
         <v>630931164</v>
@@ -3655,7 +3655,7 @@
         <v>9</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>10</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C83" s="4">
         <v>404889397</v>
@@ -3684,7 +3684,7 @@
         <v>15</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>90</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C84" s="4">
         <v>578844718</v>
@@ -3716,7 +3716,7 @@
         <v>9</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>10</v>
@@ -3724,10 +3724,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C85" s="4">
         <v>770917641</v>
@@ -3745,7 +3745,7 @@
         <v>9</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>10</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C86" s="4">
         <v>666498344</v>
@@ -3774,7 +3774,7 @@
         <v>15</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>91</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C87" s="4">
         <v>93350009</v>
@@ -3806,7 +3806,7 @@
         <v>15</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>92</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C88" s="4">
         <v>578844718</v>
@@ -3838,7 +3838,7 @@
         <v>15</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>93</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C89" s="4">
         <v>630931164</v>
@@ -3870,7 +3870,7 @@
         <v>15</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>94</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C90" s="4">
         <v>1039765788</v>
@@ -3902,7 +3902,7 @@
         <v>9</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>10</v>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C91" s="4">
         <v>1039765788</v>
@@ -3931,7 +3931,7 @@
         <v>15</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>95</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C92" s="4">
         <v>841112279</v>
@@ -3963,7 +3963,7 @@
         <v>15</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>96</v>
@@ -3974,10 +3974,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C93" s="4">
         <v>770917641</v>
@@ -3995,7 +3995,7 @@
         <v>9</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>10</v>
@@ -4003,10 +4003,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C94" s="4">
         <v>1083974729</v>
@@ -4024,7 +4024,7 @@
         <v>9</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>97</v>
@@ -4032,10 +4032,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C95" s="4">
         <v>726565172</v>
@@ -4053,7 +4053,7 @@
         <v>15</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>98</v>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C96" s="4">
         <v>578844718</v>
@@ -4085,7 +4085,7 @@
         <v>9</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>10</v>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C97" s="4">
         <v>1049764642</v>
@@ -4114,7 +4114,7 @@
         <v>15</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>99</v>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C98" s="4">
         <v>726565172</v>
@@ -4146,7 +4146,7 @@
         <v>15</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>100</v>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C99" s="4">
         <v>1039765788</v>
@@ -4178,7 +4178,7 @@
         <v>15</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>101</v>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C100" s="4">
         <v>578844718</v>
@@ -4210,7 +4210,7 @@
         <v>15</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>102</v>
@@ -4221,10 +4221,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C101" s="4">
         <v>558801174</v>
@@ -4242,7 +4242,7 @@
         <v>15</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>103</v>
@@ -4260,7 +4260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BC3591-05BB-4BCF-8FDC-0A767B3C0BDF}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4281,25 +4283,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4313,16 +4315,16 @@
         <v>3136147631</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H2" s="2">
         <v>5500000</v>
@@ -4342,16 +4344,16 @@
         <v>3132216656</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
@@ -4369,16 +4371,16 @@
         <v>3151644282</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H4" s="2">
         <v>5500000</v>
@@ -4398,16 +4400,16 @@
         <v>3132782964</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
@@ -4425,16 +4427,16 @@
         <v>3146832599</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H6" s="2">
         <v>5500000</v>
@@ -4454,16 +4456,16 @@
         <v>3204160051</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
@@ -4481,16 +4483,16 @@
         <v>3146633382</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2">
         <v>5500000</v>
@@ -4510,16 +4512,16 @@
         <v>3102226628</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H9" s="2">
         <v>5500000</v>
@@ -4539,16 +4541,16 @@
         <v>3124110916</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
@@ -4566,16 +4568,16 @@
         <v>3218604576</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H11" s="2">
         <v>5500000</v>
@@ -4595,16 +4597,16 @@
         <v>3195896512</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H12" s="2">
         <v>5500000</v>
@@ -4624,16 +4626,16 @@
         <v>3120721051</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H13" s="2">
         <v>5500000</v>
@@ -4653,16 +4655,16 @@
         <v>3162948039</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H14" s="2">
         <v>5500000</v>
@@ -4682,16 +4684,16 @@
         <v>3117973556</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H15" s="2">
         <v>5500000</v>
@@ -4711,16 +4713,16 @@
         <v>3105524034</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H16" s="2">
         <v>5500000</v>
@@ -4740,16 +4742,16 @@
         <v>3174699705</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
@@ -4767,16 +4769,16 @@
         <v>3117301274</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H18" s="2">
         <v>5500000</v>
@@ -4796,16 +4798,16 @@
         <v>3125750796</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H19" s="2">
         <v>5500000</v>
@@ -4825,16 +4827,16 @@
         <v>3191457494</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H20" s="2">
         <v>5500000</v>
@@ -4854,16 +4856,16 @@
         <v>3126415935</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H21" s="2">
         <v>5500000</v>
@@ -4882,69 +4884,70 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B7" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/diccionarios/baseExcel.xlsx
+++ b/diccionarios/baseExcel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Personal Space\PYTHON\APP TARIFAS\diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8D7F56-9B36-4C69-B1C6-56FC84820E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E0B1A2-B4D9-4BE8-86BD-83C718DA1068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registros" sheetId="1" r:id="rId1"/>
     <sheet name="clientes" sheetId="2" r:id="rId2"/>
     <sheet name="cuentas" sheetId="3" r:id="rId3"/>
-    <sheet name="Ref" sheetId="4" r:id="rId4"/>
+    <sheet name="asociados" sheetId="5" r:id="rId4"/>
+    <sheet name="Ref" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">registros!$A$1:$J$101</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="263">
   <si>
     <t>Fecha_sistema</t>
   </si>
@@ -759,6 +760,75 @@
   </si>
   <si>
     <t>Nequi Eliana Romero</t>
+  </si>
+  <si>
+    <t>Cedula_asoc</t>
+  </si>
+  <si>
+    <t>Jaime Beltran</t>
+  </si>
+  <si>
+    <t>Honorio Galviz</t>
+  </si>
+  <si>
+    <t>Rodolfo Hernandez</t>
+  </si>
+  <si>
+    <t>Didier tavera</t>
+  </si>
+  <si>
+    <t>Juan Cardenas</t>
+  </si>
+  <si>
+    <t>Luis Bohorquez</t>
+  </si>
+  <si>
+    <t>Nombre_asoc</t>
+  </si>
+  <si>
+    <t>Fecha_final</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
   </si>
 </sst>
 </file>
@@ -4258,10 +4328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BC3591-05BB-4BCF-8FDC-0A767B3C0BDF}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,12 +4340,12 @@
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>105</v>
       </c>
@@ -4295,16 +4365,19 @@
         <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>841112279</v>
       </c>
@@ -4323,17 +4396,20 @@
       <c r="F2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>5500000</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>29000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>770917641</v>
       </c>
@@ -4352,15 +4428,18 @@
       <c r="F3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
         <v>37000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1039765788</v>
       </c>
@@ -4379,17 +4458,20 @@
       <c r="F4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>5500000</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>24000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>765409425</v>
       </c>
@@ -4408,15 +4490,18 @@
       <c r="F5" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
         <v>37000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>93350009</v>
       </c>
@@ -4435,17 +4520,20 @@
       <c r="F6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>5500000</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>21000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1083974729</v>
       </c>
@@ -4464,15 +4552,18 @@
       <c r="F7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
         <v>37000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>404889397</v>
       </c>
@@ -4491,17 +4582,20 @@
       <c r="F8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>5500000</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>22000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>698811872</v>
       </c>
@@ -4520,17 +4614,20 @@
       <c r="F9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>5500000</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>32000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>451077970</v>
       </c>
@@ -4549,15 +4646,18 @@
       <c r="F10" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>558801174</v>
       </c>
@@ -4576,17 +4676,20 @@
       <c r="F11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>5500000</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>26000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>429938756</v>
       </c>
@@ -4605,17 +4708,20 @@
       <c r="F12" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>5500000</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>36000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>342300918</v>
       </c>
@@ -4634,17 +4740,20 @@
       <c r="F13" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>5500000</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>24000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>578844718</v>
       </c>
@@ -4663,17 +4772,20 @@
       <c r="F14" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>5500000</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>34000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>726565172</v>
       </c>
@@ -4692,17 +4804,20 @@
       <c r="F15" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>5500000</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>630931164</v>
       </c>
@@ -4721,17 +4836,20 @@
       <c r="F16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>5500000</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>625438523</v>
       </c>
@@ -4750,15 +4868,18 @@
       <c r="F17" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
         <v>37000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>450050384</v>
       </c>
@@ -4777,17 +4898,20 @@
       <c r="F18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>5500000</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>29000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>666498344</v>
       </c>
@@ -4806,17 +4930,20 @@
       <c r="F19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>5500000</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>841975511</v>
       </c>
@@ -4835,17 +4962,20 @@
       <c r="F20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>5500000</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>27000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1049764642</v>
       </c>
@@ -4864,13 +4994,16 @@
       <c r="F21" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>5500000</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>32000</v>
       </c>
     </row>
@@ -4883,9 +5016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F437F-44CA-4E2B-A592-1B0D69F3DA0E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4956,6 +5087,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E19979B-7F94-4675-9A79-7F7AAE46097B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="4"/>
+    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="18.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>547153356</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>390503844</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>828218286</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>535303735</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>313153392</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>583557035</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FFA5D2-BD37-4E7D-A155-F3525B4EDB62}">
   <dimension ref="C1"/>
   <sheetViews>

--- a/diccionarios/baseExcel.xlsx
+++ b/diccionarios/baseExcel.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28604"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Personal Space\PYTHON\APP TARIFAS\diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E0B1A2-B4D9-4BE8-86BD-83C718DA1068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB62CE1-1C08-4295-B548-3842147EF7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registros" sheetId="1" r:id="rId1"/>
     <sheet name="clientes" sheetId="2" r:id="rId2"/>
     <sheet name="cuentas" sheetId="3" r:id="rId3"/>
-    <sheet name="asociados" sheetId="5" r:id="rId4"/>
+    <sheet name="propietario" sheetId="6" r:id="rId4"/>
     <sheet name="Ref" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="338">
   <si>
     <t>Fecha_sistema</t>
   </si>
@@ -177,9 +177,6 @@
     <t>HYU527</t>
   </si>
   <si>
-    <t>CON536155</t>
-  </si>
-  <si>
     <t>Fernando Torres</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>CON245554</t>
   </si>
   <si>
-    <t>CON591346</t>
-  </si>
-  <si>
     <t>CON993559</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>CON132522</t>
   </si>
   <si>
-    <t>CON732063</t>
-  </si>
-  <si>
     <t>Ana Rodriguez</t>
   </si>
   <si>
@@ -333,9 +324,6 @@
     <t>CON912474</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>CON412507</t>
   </si>
   <si>
@@ -378,9 +366,6 @@
     <t>Tipo_contrato</t>
   </si>
   <si>
-    <t>Capital</t>
-  </si>
-  <si>
     <t>Valor_cuota</t>
   </si>
   <si>
@@ -762,30 +747,6 @@
     <t>Nequi Eliana Romero</t>
   </si>
   <si>
-    <t>Cedula_asoc</t>
-  </si>
-  <si>
-    <t>Jaime Beltran</t>
-  </si>
-  <si>
-    <t>Honorio Galviz</t>
-  </si>
-  <si>
-    <t>Rodolfo Hernandez</t>
-  </si>
-  <si>
-    <t>Didier tavera</t>
-  </si>
-  <si>
-    <t>Juan Cardenas</t>
-  </si>
-  <si>
-    <t>Luis Bohorquez</t>
-  </si>
-  <si>
-    <t>Nombre_asoc</t>
-  </si>
-  <si>
     <t>Fecha_final</t>
   </si>
   <si>
@@ -795,15 +756,9 @@
     <t>2025-12-09</t>
   </si>
   <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
     <t>2025-12-05</t>
   </si>
   <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
     <t>2025-12-06</t>
   </si>
   <si>
@@ -829,6 +784,276 @@
   </si>
   <si>
     <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>Tarjeta_propiedad</t>
+  </si>
+  <si>
+    <t>Leonaldo Vera</t>
+  </si>
+  <si>
+    <t>Donal Trump</t>
+  </si>
+  <si>
+    <t>Gustavo Petro</t>
+  </si>
+  <si>
+    <t>Vladimir Putin</t>
+  </si>
+  <si>
+    <t>CON667702</t>
+  </si>
+  <si>
+    <t>CON667703</t>
+  </si>
+  <si>
+    <t>CON667704</t>
+  </si>
+  <si>
+    <t>CON667705</t>
+  </si>
+  <si>
+    <t>CON667706</t>
+  </si>
+  <si>
+    <t>CON667707</t>
+  </si>
+  <si>
+    <t>CON667708</t>
+  </si>
+  <si>
+    <t>CON667709</t>
+  </si>
+  <si>
+    <t>CON667710</t>
+  </si>
+  <si>
+    <t>CON667711</t>
+  </si>
+  <si>
+    <t>CON667712</t>
+  </si>
+  <si>
+    <t>CON667713</t>
+  </si>
+  <si>
+    <t>CON667714</t>
+  </si>
+  <si>
+    <t>CON667715</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>2024-12-14</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>2024-12-22</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>2024-12-26</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>2025-01-30</t>
+  </si>
+  <si>
+    <t>2025-01-31</t>
+  </si>
+  <si>
+    <t>CON667716</t>
+  </si>
+  <si>
+    <t>CON667717</t>
+  </si>
+  <si>
+    <t>CON667718</t>
+  </si>
+  <si>
+    <t>CON667719</t>
+  </si>
+  <si>
+    <t>CON667720</t>
+  </si>
+  <si>
+    <t>CON667721</t>
+  </si>
+  <si>
+    <t>CON667722</t>
+  </si>
+  <si>
+    <t>CON667723</t>
+  </si>
+  <si>
+    <t>CON667724</t>
+  </si>
+  <si>
+    <t>CON667725</t>
+  </si>
+  <si>
+    <t>CON667726</t>
+  </si>
+  <si>
+    <t>CON667727</t>
+  </si>
+  <si>
+    <t>CON667728</t>
+  </si>
+  <si>
+    <t>CON667729</t>
+  </si>
+  <si>
+    <t>CON667730</t>
+  </si>
+  <si>
+    <t>CON667731</t>
+  </si>
+  <si>
+    <t>CON667732</t>
+  </si>
+  <si>
+    <t>CON667733</t>
+  </si>
+  <si>
+    <t>CON667734</t>
+  </si>
+  <si>
+    <t>CON667735</t>
+  </si>
+  <si>
+    <t>CON667736</t>
+  </si>
+  <si>
+    <t>CON667737</t>
+  </si>
+  <si>
+    <t>CON667738</t>
+  </si>
+  <si>
+    <t>CON667739</t>
+  </si>
+  <si>
+    <t>CON667740</t>
+  </si>
+  <si>
+    <t>CON667741</t>
+  </si>
+  <si>
+    <t>CON667742</t>
+  </si>
+  <si>
+    <t>CON667743</t>
+  </si>
+  <si>
+    <t>CON667744</t>
+  </si>
+  <si>
+    <t>CON667745</t>
+  </si>
+  <si>
+    <t>CON667746</t>
+  </si>
+  <si>
+    <t>CON667747</t>
+  </si>
+  <si>
+    <t>CON667748</t>
+  </si>
+  <si>
+    <t>CON667749</t>
+  </si>
+  <si>
+    <t>CON667750</t>
+  </si>
+  <si>
+    <t>CON667751</t>
+  </si>
+  <si>
+    <t>CON667752</t>
+  </si>
+  <si>
+    <t>CON667753</t>
+  </si>
+  <si>
+    <t>CON667754</t>
+  </si>
+  <si>
+    <t>CON667755</t>
+  </si>
+  <si>
+    <t>CON667756</t>
+  </si>
+  <si>
+    <t>CON667757</t>
+  </si>
+  <si>
+    <t>CON667758</t>
+  </si>
+  <si>
+    <t>CON667759</t>
+  </si>
+  <si>
+    <t>CON667760</t>
+  </si>
+  <si>
+    <t>CON667761</t>
+  </si>
+  <si>
+    <t>CON667762</t>
+  </si>
+  <si>
+    <t>CON667763</t>
+  </si>
+  <si>
+    <t>CON667764</t>
+  </si>
+  <si>
+    <t>CON667765</t>
+  </si>
+  <si>
+    <t>CON667766</t>
+  </si>
+  <si>
+    <t>CON667767</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-02-15</t>
   </si>
 </sst>
 </file>
@@ -838,7 +1063,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,6 +1076,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1213,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98:F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1250,13 +1481,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1267,57 +1498,63 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C2" s="4">
-        <v>841112279</v>
+        <v>93350009</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5">
-        <v>28000</v>
+        <v>48000</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>107</v>
+        <v>232</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="C3" s="4">
-        <v>770917641</v>
+        <v>93350009</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5">
-        <v>60000</v>
+        <v>33000</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>107</v>
+        <v>232</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>
@@ -1325,31 +1562,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C4" s="4">
-        <v>1039765788</v>
+        <v>93350009</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5">
-        <v>42000</v>
+        <v>55000</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>10</v>
@@ -1357,28 +1594,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C5" s="4">
-        <v>765409425</v>
+        <v>93350009</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5">
-        <v>54000</v>
+        <v>28000</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>107</v>
+        <v>230</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>10</v>
@@ -1386,10 +1626,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4">
         <v>93350009</v>
@@ -1401,16 +1641,13 @@
         <v>20</v>
       </c>
       <c r="F6" s="5">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>10</v>
@@ -1418,60 +1655,63 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C7" s="4">
-        <v>770917641</v>
+        <v>93350009</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4">
-        <v>770917641</v>
+        <v>93350009</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>107</v>
+        <v>232</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>10</v>
@@ -1479,28 +1719,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C9" s="4">
-        <v>1083974729</v>
+        <v>93350009</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>107</v>
+        <v>232</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>10</v>
@@ -1508,28 +1751,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C10" s="4">
-        <v>404889397</v>
+        <v>93350009</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5">
-        <v>35000</v>
+        <v>52000</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>10</v>
@@ -1537,31 +1780,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C11" s="4">
-        <v>698811872</v>
+        <v>342300918</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5">
-        <v>42000</v>
+        <v>31000</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>10</v>
@@ -1569,31 +1809,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C12" s="4">
-        <v>451077970</v>
+        <v>342300918</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5">
-        <v>23000</v>
+        <v>58000</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>10</v>
@@ -1601,28 +1838,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C13" s="4">
-        <v>404889397</v>
+        <v>342300918</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5">
-        <v>34000</v>
+        <v>59000</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>10</v>
@@ -1633,28 +1870,25 @@
         <v>170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C14" s="4">
-        <v>558801174</v>
+        <v>342300918</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F14" s="5">
-        <v>57000</v>
+        <v>35000</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>10</v>
@@ -1662,31 +1896,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4">
-        <v>765409425</v>
+        <v>342300918</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F15" s="5">
-        <v>31000</v>
+        <v>49000</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>10</v>
@@ -1694,89 +1925,89 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C16" s="4">
-        <v>93350009</v>
+        <v>404889397</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F16" s="5">
-        <v>52000</v>
+        <v>47000</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>107</v>
+        <v>234</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C17" s="4">
-        <v>429938756</v>
+        <v>404889397</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F17" s="5">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C18" s="4">
-        <v>342300918</v>
+        <v>404889397</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F18" s="5">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>10</v>
@@ -1784,28 +2015,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C19" s="4">
-        <v>578844718</v>
+        <v>404889397</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F19" s="5">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>10</v>
@@ -1813,31 +2044,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4">
-        <v>1083974729</v>
+        <v>404889397</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20" s="5">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>10</v>
@@ -1845,31 +2076,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="C21" s="4">
-        <v>726565172</v>
+        <v>429938756</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F21" s="5">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>10</v>
@@ -1877,60 +2105,63 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="C22" s="4">
-        <v>558801174</v>
+        <v>429938756</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F22" s="5">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>107</v>
+        <v>234</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" s="4">
-        <v>578844718</v>
+        <v>429938756</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F23" s="5">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>10</v>
@@ -1938,31 +2169,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C24" s="4">
-        <v>630931164</v>
+        <v>429938756</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F24" s="5">
-        <v>32000</v>
+        <v>55000</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>10</v>
@@ -1970,31 +2201,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C25" s="4">
-        <v>578844718</v>
+        <v>429938756</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F25" s="5">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>10</v>
@@ -2002,28 +2230,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C26" s="4">
-        <v>726565172</v>
+        <v>429938756</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F26" s="5">
-        <v>53000</v>
+        <v>32000</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>10</v>
@@ -2031,31 +2259,31 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C27" s="4">
-        <v>841112279</v>
+        <v>450050384</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="F27" s="5">
-        <v>29000</v>
+        <v>59000</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>10</v>
@@ -2063,31 +2291,31 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C28" s="4">
-        <v>578844718</v>
+        <v>451077970</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F28" s="5">
-        <v>49000</v>
+        <v>23000</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>10</v>
@@ -2095,60 +2323,60 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C29" s="4">
-        <v>1083974729</v>
+        <v>451077970</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F29" s="5">
-        <v>50000</v>
+        <v>36000</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="C30" s="4">
-        <v>1039765788</v>
+        <v>451077970</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F30" s="5">
-        <v>20000</v>
+        <v>58000</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>10</v>
@@ -2156,28 +2384,31 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C31" s="4">
-        <v>404889397</v>
+        <v>558801174</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F31" s="5">
-        <v>35000</v>
+        <v>57000</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>107</v>
+        <v>233</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>10</v>
@@ -2185,31 +2416,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="C32" s="4">
-        <v>404889397</v>
+        <v>558801174</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F32" s="5">
         <v>45000</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>10</v>
@@ -2217,60 +2445,63 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="C33" s="4">
-        <v>429938756</v>
+        <v>558801174</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F33" s="5">
-        <v>55000</v>
+        <v>46000</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C34" s="4">
-        <v>342300918</v>
+        <v>558801174</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F34" s="5">
-        <v>59000</v>
+        <v>34000</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>107</v>
+        <v>233</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>10</v>
@@ -2278,60 +2509,60 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C35" s="4">
-        <v>770917641</v>
+        <v>558801174</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F35" s="5">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C36" s="4">
-        <v>625438523</v>
+        <v>578844718</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F36" s="5">
-        <v>49000</v>
+        <v>30000</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>107</v>
+        <v>233</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>10</v>
@@ -2339,28 +2570,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4">
-        <v>625438523</v>
+        <v>578844718</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F37" s="5">
-        <v>39000</v>
+        <v>35000</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>10</v>
@@ -2368,31 +2599,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C38" s="4">
-        <v>450050384</v>
+        <v>578844718</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F38" s="5">
-        <v>59000</v>
+        <v>26000</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>10</v>
@@ -2400,31 +2628,28 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C39" s="4">
-        <v>666498344</v>
+        <v>578844718</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F39" s="5">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>10</v>
@@ -2432,28 +2657,31 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C40" s="4">
-        <v>558801174</v>
+        <v>578844718</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F40" s="5">
-        <v>45000</v>
+        <v>54000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>107</v>
+        <v>232</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>10</v>
@@ -2461,28 +2689,28 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C41" s="4">
-        <v>429938756</v>
+        <v>578844718</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F41" s="5">
-        <v>21000</v>
+        <v>45000</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>10</v>
@@ -2490,57 +2718,63 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C42" s="4">
-        <v>666498344</v>
+        <v>578844718</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F42" s="5">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>107</v>
+        <v>230</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C43" s="4">
-        <v>451077970</v>
+        <v>578844718</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F43" s="5">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>107</v>
+        <v>232</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>10</v>
@@ -2548,28 +2782,31 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C44" s="4">
-        <v>841112279</v>
+        <v>578844718</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F44" s="5">
-        <v>20000</v>
+        <v>49000</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>107</v>
+        <v>234</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>10</v>
@@ -2577,28 +2814,28 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C45" s="4">
-        <v>630931164</v>
+        <v>578844718</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F45" s="5">
-        <v>26000</v>
+        <v>54000</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>10</v>
@@ -2606,28 +2843,28 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C46" s="4">
         <v>625438523</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F46" s="5">
-        <v>36000</v>
+        <v>48000</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>10</v>
@@ -2635,28 +2872,31 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C47" s="4">
         <v>625438523</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F47" s="5">
-        <v>48000</v>
+        <v>47000</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>107</v>
+        <v>233</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>10</v>
@@ -2664,63 +2904,57 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C48" s="4">
         <v>625438523</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48" s="5">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C49" s="4">
-        <v>1083974729</v>
+        <v>625438523</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F49" s="5">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>10</v>
@@ -2728,28 +2962,28 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C50" s="4">
-        <v>578844718</v>
+        <v>625438523</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F50" s="5">
-        <v>35000</v>
+        <v>39000</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>10</v>
@@ -2757,60 +2991,60 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C51" s="4">
-        <v>666498344</v>
+        <v>625438523</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="5">
+        <v>48000</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="5">
-        <v>35000</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="J51" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C52" s="4">
-        <v>841975511</v>
+        <v>630931164</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F52" s="5">
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>10</v>
@@ -2818,19 +3052,19 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C53" s="4">
         <v>630931164</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="F53" s="5">
         <v>46000</v>
@@ -2839,10 +3073,10 @@
         <v>15</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>10</v>
@@ -2850,31 +3084,31 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C54" s="4">
-        <v>93350009</v>
+        <v>630931164</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F54" s="5">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>10</v>
@@ -2882,31 +3116,28 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C55" s="4">
-        <v>841112279</v>
+        <v>630931164</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F55" s="5">
-        <v>44000</v>
+        <v>35000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>10</v>
@@ -2914,31 +3145,31 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="C56" s="4">
-        <v>558801174</v>
+        <v>630931164</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F56" s="5">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>10</v>
@@ -2946,28 +3177,28 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C57" s="4">
-        <v>429938756</v>
+        <v>666498344</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F57" s="5">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>10</v>
@@ -2975,31 +3206,31 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C58" s="4">
-        <v>93350009</v>
+        <v>666498344</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F58" s="5">
-        <v>55000</v>
+        <v>54000</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>10</v>
@@ -3007,60 +3238,60 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C59" s="4">
-        <v>93350009</v>
+        <v>666498344</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F59" s="5">
-        <v>48000</v>
+        <v>41000</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C60" s="4">
-        <v>770917641</v>
+        <v>666498344</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F60" s="5">
-        <v>47000</v>
+        <v>35000</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>10</v>
@@ -3068,28 +3299,31 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C61" s="4">
-        <v>342300918</v>
+        <v>666498344</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F61" s="5">
-        <v>49000</v>
+        <v>34000</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>107</v>
+        <v>231</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>10</v>
@@ -3097,28 +3331,31 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C62" s="4">
-        <v>578844718</v>
+        <v>698811872</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F62" s="5">
-        <v>36000</v>
+        <v>42000</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>107</v>
+        <v>232</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>10</v>
@@ -3126,28 +3363,28 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="C63" s="4">
-        <v>770917641</v>
+        <v>698811872</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F63" s="5">
-        <v>59000</v>
+        <v>29000</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>10</v>
@@ -3155,31 +3392,31 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C64" s="4">
-        <v>666498344</v>
+        <v>726565172</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F64" s="5">
-        <v>41000</v>
+        <v>36000</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>10</v>
@@ -3187,31 +3424,31 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C65" s="4">
-        <v>625438523</v>
+        <v>726565172</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F65" s="5">
-        <v>47000</v>
+        <v>43000</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>10</v>
@@ -3219,28 +3456,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="C66" s="4">
         <v>726565172</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="F66" s="5">
-        <v>51000</v>
+        <v>53000</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>10</v>
@@ -3248,60 +3485,60 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C67" s="4">
-        <v>451077970</v>
+        <v>726565172</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F67" s="5">
-        <v>36000</v>
+        <v>31000</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="C68" s="4">
-        <v>429938756</v>
+        <v>726565172</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F68" s="5">
-        <v>40000</v>
+        <v>51000</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>10</v>
@@ -3309,10 +3546,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C69" s="4">
         <v>765409425</v>
@@ -3324,16 +3561,16 @@
         <v>18</v>
       </c>
       <c r="F69" s="5">
-        <v>49000</v>
+        <v>31000</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>10</v>
@@ -3341,10 +3578,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C70" s="4">
         <v>765409425</v>
@@ -3362,10 +3599,10 @@
         <v>15</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>23</v>
@@ -3373,28 +3610,28 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="C71" s="4">
-        <v>1049764642</v>
+        <v>765409425</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="F71" s="5">
-        <v>27000</v>
+        <v>54000</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>10</v>
@@ -3402,28 +3639,28 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="C72" s="4">
-        <v>93350009</v>
+        <v>765409425</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F72" s="5">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>86</v>
@@ -3434,28 +3671,31 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" s="4">
-        <v>770917641</v>
+        <v>765409425</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F73" s="5">
-        <v>50000</v>
+        <v>49000</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>107</v>
+        <v>234</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>10</v>
@@ -3463,60 +3703,60 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="C74" s="4">
-        <v>342300918</v>
+        <v>770917641</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F74" s="5">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>107</v>
+        <v>230</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="C75" s="4">
-        <v>93350009</v>
+        <v>770917641</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F75" s="5">
-        <v>33000</v>
+        <v>55000</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>10</v>
@@ -3524,31 +3764,28 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C76" s="4">
-        <v>429938756</v>
+        <v>770917641</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F76" s="5">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>10</v>
@@ -3556,60 +3793,60 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C77" s="4">
-        <v>342300918</v>
+        <v>770917641</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F77" s="5">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>107</v>
+        <v>234</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="C78" s="4">
-        <v>765409425</v>
+        <v>770917641</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F78" s="5">
-        <v>28000</v>
+        <v>59000</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>10</v>
@@ -3617,28 +3854,28 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C79" s="4">
-        <v>1039765788</v>
+        <v>770917641</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F79" s="5">
-        <v>55000</v>
+        <v>47000</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>10</v>
@@ -3646,28 +3883,28 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="C80" s="4">
-        <v>698811872</v>
+        <v>770917641</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F80" s="5">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>10</v>
@@ -3675,28 +3912,28 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C81" s="4">
-        <v>93350009</v>
+        <v>770917641</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F81" s="5">
-        <v>42000</v>
+        <v>60000</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>10</v>
@@ -3704,28 +3941,28 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C82" s="4">
-        <v>630931164</v>
+        <v>770917641</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F82" s="5">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>10</v>
@@ -3733,60 +3970,60 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C83" s="4">
-        <v>404889397</v>
+        <v>841112279</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F83" s="5">
-        <v>47000</v>
+        <v>44000</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C84" s="4">
-        <v>578844718</v>
+        <v>841112279</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F84" s="5">
-        <v>54000</v>
+        <v>20000</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>10</v>
@@ -3794,28 +4031,28 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C85" s="4">
-        <v>770917641</v>
+        <v>841112279</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F85" s="5">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>10</v>
@@ -3823,31 +4060,31 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C86" s="4">
-        <v>666498344</v>
+        <v>841112279</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="F86" s="5">
-        <v>54000</v>
+        <v>29000</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>10</v>
@@ -3855,31 +4092,31 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C87" s="4">
-        <v>93350009</v>
+        <v>841112279</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F87" s="5">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>10</v>
@@ -3887,31 +4124,31 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C88" s="4">
-        <v>578844718</v>
+        <v>841975511</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F88" s="5">
-        <v>54000</v>
+        <v>29000</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>10</v>
@@ -3919,31 +4156,28 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="C89" s="4">
-        <v>630931164</v>
+        <v>1039765788</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F89" s="5">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>10</v>
@@ -3951,10 +4185,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C90" s="4">
         <v>1039765788</v>
@@ -3966,13 +4200,16 @@
         <v>14</v>
       </c>
       <c r="F90" s="5">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>107</v>
+        <v>231</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>10</v>
@@ -3980,10 +4217,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C91" s="4">
         <v>1039765788</v>
@@ -3995,16 +4232,13 @@
         <v>14</v>
       </c>
       <c r="F91" s="5">
-        <v>28000</v>
+        <v>55000</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>10</v>
@@ -4012,31 +4246,31 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C92" s="4">
-        <v>841112279</v>
+        <v>1039765788</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F92" s="5">
-        <v>23000</v>
+        <v>42000</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>10</v>
@@ -4044,28 +4278,28 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C93" s="4">
-        <v>770917641</v>
+        <v>1039765788</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F93" s="5">
-        <v>31000</v>
+        <v>58000</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>10</v>
@@ -4073,31 +4307,34 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C94" s="4">
-        <v>1083974729</v>
+        <v>1039765788</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F94" s="5">
-        <v>42000</v>
+        <v>38000</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>107</v>
+        <v>233</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4105,28 +4342,28 @@
         <v>207</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C95" s="4">
-        <v>726565172</v>
+        <v>1049764642</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="F95" s="5">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>10</v>
@@ -4134,28 +4371,28 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="C96" s="4">
-        <v>578844718</v>
+        <v>1049764642</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F96" s="5">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>10</v>
@@ -4163,31 +4400,31 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C97" s="4">
-        <v>1049764642</v>
+        <v>1083974729</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="F97" s="5">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>10</v>
@@ -4195,31 +4432,31 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="C98" s="4">
-        <v>726565172</v>
+        <v>1083974729</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F98" s="5">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>10</v>
@@ -4227,31 +4464,31 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="C99" s="4">
-        <v>1039765788</v>
+        <v>1083974729</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F99" s="5">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>10</v>
@@ -4259,69 +4496,1999 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="C100" s="4">
-        <v>578844718</v>
+        <v>1083974729</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F100" s="5">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C103" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C109" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C117" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C124" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C128" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C132" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C133" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C134" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F134" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C139" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C140" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C142" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F142" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C143" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F144" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F146" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C147" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F147" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C149" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C151" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C152" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F152" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C153" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C155" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F155" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C156" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F156" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C157" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C158" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C159" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C160" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C161" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C101" s="4">
-        <v>558801174</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F101" s="5">
-        <v>46000</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>23</v>
+      <c r="B162" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C162" s="4">
+        <v>1083974729</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="5">
+        <v>32000</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J102">
+    <sortCondition ref="C2:C102"/>
+    <sortCondition ref="B2:B102"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4330,8 +6497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BC3591-05BB-4BCF-8FDC-0A767B3C0BDF}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4340,41 +6507,42 @@
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4388,25 +6556,25 @@
         <v>3136147631</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>135</v>
+      <c r="F2" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5500000</v>
+        <v>130</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J2" s="2">
-        <v>29000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4420,23 +6588,25 @@
         <v>3132216656</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>136</v>
+      <c r="F3" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="J3" s="2">
-        <v>37000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4450,25 +6620,25 @@
         <v>3151644282</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>137</v>
+      <c r="F4" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="2">
-        <v>5500000</v>
+        <v>132</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J4" s="2">
-        <v>24000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4482,23 +6652,25 @@
         <v>3132782964</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>135</v>
+      <c r="F5" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="J5" s="2">
-        <v>37000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4512,25 +6684,25 @@
         <v>3146832599</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>138</v>
+      <c r="F6" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5500000</v>
+        <v>133</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J6" s="2">
-        <v>21000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4544,23 +6716,25 @@
         <v>3204160051</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>139</v>
+      <c r="F7" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="J7" s="2">
-        <v>37000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4574,25 +6748,25 @@
         <v>3146633382</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>140</v>
+      <c r="F8" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5500000</v>
+        <v>135</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J8" s="2">
-        <v>22000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4606,22 +6780,22 @@
         <v>3102226628</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>139</v>
+      <c r="F9" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5500000</v>
+        <v>134</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J9" s="2">
         <v>32000</v>
@@ -4638,23 +6812,25 @@
         <v>3124110916</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>141</v>
+      <c r="F10" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="J10" s="2">
-        <v>37000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4668,25 +6844,25 @@
         <v>3218604576</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>142</v>
+      <c r="F11" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5500000</v>
+        <v>137</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J11" s="2">
-        <v>26000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4700,25 +6876,25 @@
         <v>3195896512</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>143</v>
+      <c r="F12" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="2">
-        <v>5500000</v>
+        <v>138</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J12" s="2">
-        <v>36000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4732,25 +6908,25 @@
         <v>3120721051</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>139</v>
+      <c r="F13" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5500000</v>
+        <v>134</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J13" s="2">
-        <v>24000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4764,25 +6940,25 @@
         <v>3162948039</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>144</v>
+      <c r="F14" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5500000</v>
+        <v>139</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J14" s="2">
-        <v>34000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4790,31 +6966,31 @@
         <v>726565172</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2">
         <v>3117973556</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>139</v>
+        <v>46</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="2">
-        <v>5500000</v>
+        <v>134</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J15" s="2">
-        <v>37000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4822,31 +6998,31 @@
         <v>630931164</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2">
         <v>3105524034</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>145</v>
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="2">
-        <v>5500000</v>
+        <v>140</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J16" s="2">
-        <v>25000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4854,29 +7030,31 @@
         <v>625438523</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2">
         <v>3174699705</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>146</v>
+        <v>59</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="J17" s="2">
-        <v>37000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4884,31 +7062,31 @@
         <v>450050384</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
         <v>3117301274</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>140</v>
+        <v>61</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="2">
-        <v>5500000</v>
+        <v>135</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J18" s="2">
-        <v>29000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4916,31 +7094,31 @@
         <v>666498344</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2">
         <v>3125750796</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>147</v>
+        <v>64</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="2">
-        <v>5500000</v>
+        <v>142</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J19" s="2">
-        <v>20000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4948,31 +7126,31 @@
         <v>841975511</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2">
         <v>3191457494</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>135</v>
+        <v>68</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="2">
-        <v>5500000</v>
+        <v>130</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J20" s="2">
-        <v>27000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4980,28 +7158,28 @@
         <v>1049764642</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2">
         <v>3126415935</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>148</v>
+        <v>82</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" s="2">
-        <v>5500000</v>
+        <v>143</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J21" s="2">
         <v>32000</v>
@@ -5027,58 +7205,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5087,95 +7265,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E19979B-7F94-4675-9A79-7F7AAE46097B}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB483B0-4DA9-40B7-9C39-E327D7394A7C}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="4"/>
-    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="18.140625" style="2"/>
+    <col min="1" max="1" width="28.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>547153356</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>390503844</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>828218286</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>535303735</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>313153392</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>583557035</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5188,7 +7458,7 @@
   <dimension ref="C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
